--- a/ofc/estimates/Finalized valuations/pahiro bipad dozer/jcb log इन्द्रायणी चाँगु सडक पहिरो.xlsx
+++ b/ofc/estimates/Finalized valuations/pahiro bipad dozer/jcb log इन्द्रायणी चाँगु सडक पहिरो.xlsx
@@ -2,23 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\estimates\Finalized valuations\pahiro bipad dozer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\081-082\ofc\estimates\Finalized valuations\pahiro bipad dozer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ESTIMATE (3)" sheetId="1" r:id="rId1"/>
+    <sheet name="ओन्ली सचिब" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'ESTIMATE (3)'!$A$1:$H$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'ओन्ली सचिब'!$A$1:$H$22</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'ESTIMATE (3)'!$1:$11</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'ओन्ली सचिब'!$1:$11</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
   <si>
     <t>सुरु घण्टा मिटर (क)</t>
   </si>
@@ -129,15 +132,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="[$-4000439]0"/>
     <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="167" formatCode="[$-4000439]0.#"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,8 +295,8 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -344,24 +347,9 @@
     <xf numFmtId="167" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -376,6 +364,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -660,134 +663,134 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7" style="4" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="4" customWidth="1"/>
     <col min="5" max="5" width="27" style="4" customWidth="1"/>
     <col min="6" max="6" width="10" style="4" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="4"/>
+    <col min="7" max="7" width="18.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-    </row>
-    <row r="2" spans="1:8" ht="45.6" x14ac:dyDescent="0.75">
-      <c r="A2" s="19" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="29"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" ht="45">
+      <c r="A2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-    </row>
-    <row r="3" spans="1:8" ht="27.6" x14ac:dyDescent="0.45">
-      <c r="A3" s="20" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+    </row>
+    <row r="3" spans="1:8" ht="27">
+      <c r="A3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-    </row>
-    <row r="4" spans="1:8" ht="27.6" x14ac:dyDescent="0.45">
-      <c r="A4" s="20" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="1:8" ht="27">
+      <c r="A4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-    </row>
-    <row r="5" spans="1:8" ht="35.4" x14ac:dyDescent="0.6">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="22"/>
-    </row>
-    <row r="6" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="23" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="1:8" ht="35.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A6" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-    </row>
-    <row r="7" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A7" s="24" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+    </row>
+    <row r="7" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A7" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-    </row>
-    <row r="8" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A8" s="26" t="s">
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A8" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-    </row>
-    <row r="9" spans="1:8" ht="37.200000000000003" x14ac:dyDescent="0.75">
-      <c r="A9" s="24" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="34.5">
+      <c r="A9" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-    </row>
-    <row r="10" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.75">
-      <c r="E10" s="27"/>
-      <c r="H10" s="28" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="33">
+      <c r="E10" s="22"/>
+      <c r="H10" s="23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="61.2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="40.5">
       <c r="A11" s="5" t="s">
         <v>2</v>
       </c>
@@ -813,7 +816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="65.25" customHeight="1">
       <c r="A12" s="9">
         <v>1</v>
       </c>
@@ -839,7 +842,7 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="3"/>
@@ -854,7 +857,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="3"/>
@@ -866,7 +869,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="3"/>
@@ -881,7 +884,7 @@
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="3"/>
@@ -896,7 +899,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="3"/>
@@ -911,7 +914,7 @@
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
@@ -920,43 +923,43 @@
       <c r="G18" s="14"/>
       <c r="H18" s="12"/>
     </row>
-    <row r="20" spans="1:8" ht="21" x14ac:dyDescent="0.4">
-      <c r="B20" s="29" t="s">
+    <row r="20" spans="1:8" ht="20.25">
+      <c r="B20" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="G21" s="31"/>
-    </row>
-    <row r="22" spans="1:8" ht="18" x14ac:dyDescent="0.35">
-      <c r="B22" s="32" t="s">
+    <row r="21" spans="1:8" ht="20.25">
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="1:8" ht="18.75">
+      <c r="B22" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="32" t="s">
+      <c r="D22" s="28"/>
+      <c r="E22" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="33"/>
-      <c r="G22" s="32" t="s">
+      <c r="F22" s="28"/>
+      <c r="G22" s="27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8">
       <c r="C26" s="4" t="s">
         <v>19</v>
       </c>
@@ -967,7 +970,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8">
       <c r="C27" s="4" t="s">
         <v>22</v>
       </c>
@@ -981,13 +984,322 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:H6"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="63" fitToHeight="2" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="7" style="4" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="29"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+    </row>
+    <row r="2" spans="1:8" ht="45">
+      <c r="A2" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+    </row>
+    <row r="3" spans="1:8" ht="27">
+      <c r="A3" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="1:8" ht="27">
+      <c r="A4" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="1:8" ht="35.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A6" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+    </row>
+    <row r="7" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A7" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+    </row>
+    <row r="8" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A8" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+    </row>
+    <row r="9" spans="1:8" ht="34.5">
+      <c r="A9" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+    </row>
+    <row r="10" spans="1:8" ht="33">
+      <c r="E10" s="22"/>
+      <c r="H10" s="23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="40.5">
+      <c r="A11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="65.25" customHeight="1">
+      <c r="A12" s="9">
+        <v>1</v>
+      </c>
+      <c r="B12" s="15">
+        <v>66276</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="7">
+        <v>2198</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="13"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="20" spans="1:8" ht="20.25">
+      <c r="B20" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="20.25">
+      <c r="B21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="1:8" ht="18.75">
+      <c r="B22" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="C26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="C27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="4" t="str">
+        <f>E26</f>
+        <v>without vat</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A9:C9"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="A6:H6"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A9:C9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ofc/estimates/Finalized valuations/pahiro bipad dozer/jcb log इन्द्रायणी चाँगु सडक पहिरो.xlsx
+++ b/ofc/estimates/Finalized valuations/pahiro bipad dozer/jcb log इन्द्रायणी चाँगु सडक पहिरो.xlsx
@@ -9,16 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ESTIMATE (3)" sheetId="1" r:id="rId1"/>
     <sheet name="ओन्ली सचिब" sheetId="2" r:id="rId2"/>
+    <sheet name="include sthaniya" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'ESTIMATE (3)'!$A$1:$H$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'include sthaniya'!$A$1:$H$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'ओन्ली सचिब'!$A$1:$H$22</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'ESTIMATE (3)'!$1:$11</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'include sthaniya'!$1:$11</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'ओन्ली सचिब'!$1:$11</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="39">
   <si>
     <t>सुरु घण्टा मिटर (क)</t>
   </si>
@@ -127,6 +130,27 @@
   </si>
   <si>
     <t>वडा प्राविधिकको नाम / सहि</t>
+  </si>
+  <si>
+    <t xml:space="preserve">मितिः                          </t>
+  </si>
+  <si>
+    <t>स्थानीयको नाम / सहि</t>
+  </si>
+  <si>
+    <t>............................</t>
+  </si>
+  <si>
+    <t>वडा अधक्ष्यको सहि</t>
+  </si>
+  <si>
+    <t>वडा सदस्यको सहि</t>
+  </si>
+  <si>
+    <t xml:space="preserve">फर्म्/व्यक्तिको नाम : न्यू माता इन्द्रायणी कन्स्ट्रक सन सर्भिस </t>
+  </si>
+  <si>
+    <t>...............................</t>
   </si>
 </sst>
 </file>
@@ -298,7 +322,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -364,6 +388,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -376,8 +406,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -664,7 +700,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G12" sqref="G12:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -681,50 +717,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:8" ht="27">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:8" ht="27">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:8" ht="35.25">
       <c r="A5" s="18"/>
@@ -737,23 +773,23 @@
       <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
@@ -773,11 +809,11 @@
       <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" ht="34.5">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
@@ -1002,7 +1038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
@@ -1020,50 +1056,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="29"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" ht="45">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:8" ht="27">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:8" ht="27">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:8" ht="35.25">
       <c r="A5" s="18"/>
@@ -1076,23 +1112,23 @@
       <c r="H5" s="19"/>
     </row>
     <row r="6" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
@@ -1112,11 +1148,11 @@
       <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:8" ht="34.5">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
@@ -1288,6 +1324,356 @@
       </c>
       <c r="E27" s="4" t="str">
         <f>E26</f>
+        <v>without vat</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A7:C7"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="63" fitToHeight="2" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="7" style="4" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="1:8" ht="45">
+      <c r="A2" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="1:8" ht="27">
+      <c r="A3" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+    </row>
+    <row r="4" spans="1:8" ht="27">
+      <c r="A4" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+    </row>
+    <row r="5" spans="1:8" ht="35.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A6" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+    </row>
+    <row r="7" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A7" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+    </row>
+    <row r="8" spans="1:8" ht="33.75" customHeight="1">
+      <c r="A8" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+    </row>
+    <row r="9" spans="1:8" ht="34.5">
+      <c r="A9" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+    </row>
+    <row r="10" spans="1:8" ht="33">
+      <c r="E10" s="22"/>
+      <c r="H10" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="40.5">
+      <c r="A11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="65.25" customHeight="1">
+      <c r="A12" s="9">
+        <v>1</v>
+      </c>
+      <c r="B12" s="15">
+        <v>66367</v>
+      </c>
+      <c r="C12" s="35">
+        <v>4300</v>
+      </c>
+      <c r="D12" s="36">
+        <v>4304.3</v>
+      </c>
+      <c r="E12" s="36">
+        <v>4.3</v>
+      </c>
+      <c r="F12" s="37">
+        <v>2198</v>
+      </c>
+      <c r="G12" s="1">
+        <f>F12*E12</f>
+        <v>9451.4</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="2">
+        <f>SUM(G12:G12)</f>
+        <v>9451.4</v>
+      </c>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="2">
+        <f>G13</f>
+        <v>9451.4</v>
+      </c>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="2">
+        <f>0.13*G15</f>
+        <v>1228.682</v>
+      </c>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="2">
+        <f>SUM(G15:G16)</f>
+        <v>10680.082</v>
+      </c>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="13"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="12"/>
+    </row>
+    <row r="21" spans="1:8" ht="20.25">
+      <c r="B21" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="20.25">
+      <c r="B22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="G22" s="26"/>
+    </row>
+    <row r="23" spans="1:8" ht="18.75">
+      <c r="B23" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="20.25">
+      <c r="C29" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="20.25">
+      <c r="C30" s="26"/>
+      <c r="E30" s="26"/>
+    </row>
+    <row r="31" spans="1:8" ht="18.75">
+      <c r="C31" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="28"/>
+      <c r="E31" s="27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5">
+      <c r="C36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5">
+      <c r="C37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="4" t="str">
+        <f>E36</f>
         <v>without vat</v>
       </c>
     </row>
